--- a/frontend_cryptoTools/cuckoo/bounds2.xlsx
+++ b/frontend_cryptoTools/cuckoo/bounds2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\repo\libPSI\frontend\cuckoo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\repo\libOTe\cryptoTools\frontend_cryptoTools\cuckoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A44964E-DA48-4747-8E5A-004D298D9690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40DC684-8444-44F2-8A6F-9894156BD9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="970" yWindow="980" windowWidth="34580" windowHeight="18560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="h=3" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,17 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="29">
   <si>
     <t>recurse=100, h=3</t>
   </si>
@@ -115,6 +105,18 @@
   </si>
   <si>
     <t>21.1926*</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>y-inter</t>
   </si>
 </sst>
 </file>
@@ -2238,19 +2240,19 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.75</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.25</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.5</c:v>
@@ -2268,7 +2270,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.75</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5</c:v>
@@ -2286,64 +2288,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.6170499999999999</c:v>
+                  <c:v>5.9720000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1430499999999997</c:v>
+                  <c:v>9.9689999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1172000000000004</c:v>
+                  <c:v>12.946999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7387599999999992</c:v>
+                  <c:v>15.266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7387599999999992</c:v>
+                  <c:v>15.266</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.105700000000001</c:v>
+                  <c:v>17.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.301600000000001</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.3873</c:v>
+                  <c:v>23.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.2483</c:v>
+                  <c:v>24.507999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.0915</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.0915</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.8401</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.5001</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.2318</c:v>
+                  <c:v>26.983333333333334</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.548999999999999</c:v>
+                  <c:v>28.366666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.193000000000001</c:v>
+                  <c:v>29.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.956</c:v>
+                  <c:v>31.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.167000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.87</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18.956</c:v>
+                  <c:v>44.966666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2405,7 +2401,7 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.875</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.125</c:v>
@@ -2450,52 +2446,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16376"/>
                 <c:pt idx="0">
-                  <c:v>0.88200000000000001</c:v>
+                  <c:v>2.0059999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0019999999999998</c:v>
+                  <c:v>4.6280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.26</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.64</c:v>
+                  <c:v>10.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.023999999999999</c:v>
+                  <c:v>13.965</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>16.675999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.73</c:v>
+                  <c:v>18.004999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.151999999999999</c:v>
+                  <c:v>20.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.788</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.776</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16.881</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17.37</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18.574000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.75</c:v>
+                  <c:v>21.193000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2557,7 +2532,7 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9375</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.1875</c:v>
@@ -2581,34 +2556,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16376"/>
                 <c:pt idx="0">
-                  <c:v>-0.83</c:v>
+                  <c:v>-0.217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8</c:v>
+                  <c:v>4.9560000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.45</c:v>
+                  <c:v>9.2729999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.56</c:v>
+                  <c:v>13.234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.077999999999999</c:v>
+                  <c:v>16.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.92</c:v>
+                  <c:v>20.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.89</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.3</c:v>
+                  <c:v>22.571999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -2653,54 +2619,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'h=3'!$J$25:$O$25</c:f>
+              <c:f>'h=3'!$I$25:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.125</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34375</c:v>
+                  <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.53125</c:v>
+                  <c:v>1.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.71875</c:v>
+                  <c:v>1.59375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.125</c:v>
+                  <c:v>1.78125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'h=3'!$J$26:$O$26</c:f>
+              <c:f>'h=3'!$I$26:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.355</c:v>
+                  <c:v>-2.5649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2669999999999995</c:v>
+                  <c:v>5.1289999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.558999999999999</c:v>
+                  <c:v>11.762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.641999999999999</c:v>
+                  <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.356000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.093</c:v>
+                  <c:v>22.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2750,10 +2710,13 @@
                   <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.296875</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.390625</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.59375</c:v>
+                <c:pt idx="3">
+                  <c:v>1.1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,13 +2728,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5.4740000000000002</c:v>
+                  <c:v>6.0659999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.332999999999998</c:v>
+                  <c:v>12.336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.678000000000001</c:v>
+                  <c:v>17.754999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2780,6 +2743,208 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-78EA-455C-85DD-5D95F0E61AB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'h=3'!$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'h=3'!$I$31:$T$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'h=3'!$I$32:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.297000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000050-5F89-4293-83FB-97ECE8F7EF6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'h=3'!$P$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'h=3'!$O$40:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'h=3'!$P$40:$P$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.3500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000052-5F89-4293-83FB-97ECE8F7EF6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'h=3'!$T$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'h=3'!$O$40:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'h=3'!$T$40:$T$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-62.623125000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>515.37687500000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000053-5F89-4293-83FB-97ECE8F7EF6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3313,19 +3478,19 @@
                         <c:v>2.25</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2.5</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2.75</c:v>
+                        <c:v>3.25</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>3</c:v>
+                        <c:v>3.5</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>3</c:v>
+                        <c:v>3.5</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>3.25</c:v>
+                        <c:v>3.5</c:v>
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>3.5</c:v>
@@ -3343,7 +3508,7 @@
                         <c:v>4.5</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>4.75</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="19">
                         <c:v>5</c:v>
@@ -4107,7 +4272,7 @@
         <c:axId val="551917720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.1000000000000001"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4355,8 +4520,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.8261028447993065E-2"/>
           <c:y val="0.80702901989875531"/>
-          <c:w val="0.88353568706180696"/>
-          <c:h val="0.14250278903485131"/>
+          <c:w val="0.77259014163329187"/>
+          <c:h val="0.18992656236162656"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7652,10 +7817,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.499999999999979</c:v>
+                  <c:v>17.499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-29.041499999999974</c:v>
+                  <c:v>-85.339999999999918</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>28.456</c:v>
@@ -8178,7 +8343,7 @@
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.87</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -21612,19 +21777,19 @@
                         <c:v>2.25</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2.5</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2.75</c:v>
+                        <c:v>3.25</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>3</c:v>
+                        <c:v>3.5</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>3</c:v>
+                        <c:v>3.5</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>3.25</c:v>
+                        <c:v>3.5</c:v>
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>3.5</c:v>
@@ -21642,7 +21807,7 @@
                         <c:v>4.5</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>4.75</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="19">
                         <c:v>5</c:v>
@@ -28290,16 +28455,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>432826</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>148736</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>245989</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>101664</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>31126</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28978,8 +29143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:AY76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38:V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29348,19 +29513,20 @@
         <v>2.25</v>
       </c>
       <c r="P16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>2.75</v>
+        <f>13/4</f>
+        <v>3.25</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U16">
         <v>3.5</v>
@@ -29378,7 +29544,7 @@
         <v>4.5</v>
       </c>
       <c r="Z16">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AA16">
         <v>5</v>
@@ -29388,65 +29554,71 @@
       </c>
     </row>
     <row r="17" spans="6:38" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <f>(N17-R17)/(N16-R16)</f>
+        <v>5.5333333333333341</v>
+      </c>
       <c r="I17">
-        <v>2.6170499999999999</v>
+        <v>5.9720000000000004</v>
       </c>
       <c r="J17">
-        <v>5.1430499999999997</v>
+        <v>9.9689999999999994</v>
       </c>
       <c r="K17">
-        <v>7.1172000000000004</v>
+        <v>12.946999999999999</v>
       </c>
       <c r="L17">
-        <v>8.7387599999999992</v>
+        <v>15.266</v>
       </c>
       <c r="M17">
-        <v>8.7387599999999992</v>
+        <v>15.266</v>
       </c>
       <c r="N17">
-        <v>10.105700000000001</v>
+        <v>17.3</v>
       </c>
       <c r="O17">
-        <v>11.301600000000001</v>
+        <v>18.8</v>
       </c>
       <c r="P17">
-        <v>12.3873</v>
+        <v>23.64</v>
       </c>
       <c r="Q17">
-        <v>13.2483</v>
+        <v>24.507999999999999</v>
       </c>
       <c r="R17">
-        <v>14.0915</v>
+        <v>25.6</v>
       </c>
       <c r="S17">
-        <v>14.0915</v>
+        <f t="shared" ref="S17:Z17" si="2">R17+($G17*(S16-R16))</f>
+        <v>25.6</v>
       </c>
       <c r="T17">
-        <v>14.8401</v>
+        <f t="shared" si="2"/>
+        <v>25.6</v>
       </c>
       <c r="U17">
-        <v>15.5001</v>
+        <f t="shared" si="2"/>
+        <v>25.6</v>
       </c>
       <c r="V17">
-        <v>16.2318</v>
+        <f t="shared" si="2"/>
+        <v>26.983333333333334</v>
       </c>
       <c r="W17">
-        <v>16.548999999999999</v>
+        <f t="shared" si="2"/>
+        <v>28.366666666666667</v>
       </c>
       <c r="X17">
-        <v>17.193000000000001</v>
+        <f t="shared" si="2"/>
+        <v>29.75</v>
       </c>
       <c r="Y17">
-        <v>17.956</v>
+        <f t="shared" si="2"/>
+        <v>31.133333333333333</v>
       </c>
       <c r="Z17">
-        <v>18.167000000000002</v>
-      </c>
-      <c r="AA17">
-        <v>18.87</v>
-      </c>
-      <c r="AB17">
-        <v>18.956</v>
+        <f t="shared" si="2"/>
+        <v>44.966666666666669</v>
       </c>
       <c r="AK17">
         <v>7.44</v>
@@ -29481,8 +29653,8 @@
         <v>1.75</v>
       </c>
       <c r="N19">
-        <f>15/8</f>
-        <v>1.875</v>
+        <f>16/8</f>
+        <v>2</v>
       </c>
       <c r="O19">
         <f>17/8</f>
@@ -29530,53 +29702,36 @@
       </c>
     </row>
     <row r="20" spans="6:38" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <f>(O20-Q20)/(O19-Q19)</f>
+        <v>8.5013333333333403</v>
+      </c>
       <c r="I20">
-        <v>0.88200000000000001</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="J20">
-        <v>3.0019999999999998</v>
+        <v>4.6280000000000001</v>
       </c>
       <c r="K20">
-        <v>6.26</v>
+        <v>8.9</v>
       </c>
       <c r="L20">
-        <v>7.64</v>
+        <v>10.75</v>
       </c>
       <c r="M20">
-        <v>10.023999999999999</v>
+        <v>13.965</v>
       </c>
       <c r="N20">
-        <v>11</v>
+        <v>16.675999999999998</v>
       </c>
       <c r="O20">
-        <v>12.73</v>
+        <v>18.004999999999999</v>
       </c>
       <c r="P20">
-        <v>14.151999999999999</v>
+        <v>20.27</v>
       </c>
       <c r="Q20">
-        <v>14.788</v>
-      </c>
-      <c r="R20">
-        <v>15.776</v>
-      </c>
-      <c r="S20">
-        <v>16.881</v>
-      </c>
-      <c r="T20">
-        <v>17.37</v>
-      </c>
-      <c r="U20">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="V20">
-        <v>18.574000000000002</v>
-      </c>
-      <c r="W20">
-        <v>19.09</v>
-      </c>
-      <c r="X20">
-        <v>19.75</v>
+        <v>21.193000000000001</v>
       </c>
     </row>
     <row r="22" spans="6:38" x14ac:dyDescent="0.35">
@@ -29603,8 +29758,8 @@
         <v>1.75</v>
       </c>
       <c r="N22">
-        <f>31/16</f>
-        <v>1.9375</v>
+        <f>32/16</f>
+        <v>2</v>
       </c>
       <c r="O22">
         <f>35/16</f>
@@ -29624,35 +29779,30 @@
       </c>
     </row>
     <row r="23" spans="6:38" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <f>(O23-M23)/(O22-M22)</f>
+        <v>13.421714285714286</v>
+      </c>
       <c r="I23">
-        <v>-0.83</v>
+        <v>-0.217</v>
       </c>
       <c r="J23">
-        <v>3.8</v>
+        <v>4.9560000000000004</v>
       </c>
       <c r="K23">
-        <v>7.45</v>
+        <v>9.2729999999999997</v>
       </c>
       <c r="L23">
-        <v>10.56</v>
+        <v>13.234</v>
       </c>
       <c r="M23">
-        <v>13.077999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="N23">
-        <v>14.92</v>
+        <v>20.3</v>
       </c>
       <c r="O23">
-        <v>16.86</v>
-      </c>
-      <c r="P23">
-        <v>17.89</v>
-      </c>
-      <c r="Q23">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="R23">
-        <v>19.3</v>
+        <v>22.571999999999999</v>
       </c>
       <c r="AA23" t="s">
         <v>6</v>
@@ -29667,76 +29817,280 @@
       <c r="F25">
         <v>5</v>
       </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="J25">
-        <v>1.125</v>
+        <f>38/32</f>
+        <v>1.1875</v>
       </c>
       <c r="K25">
-        <v>1.34375</v>
+        <f>44/32</f>
+        <v>1.375</v>
       </c>
       <c r="L25">
-        <v>1.53125</v>
+        <f>51/32</f>
+        <v>1.59375</v>
       </c>
       <c r="M25">
-        <v>1.71875</v>
-      </c>
-      <c r="N25">
-        <v>1.9375</v>
-      </c>
-      <c r="O25">
-        <v>2.125</v>
+        <f>57/32</f>
+        <v>1.78125</v>
       </c>
     </row>
     <row r="26" spans="6:38" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <f>(L26-M26)/(L25-M25)</f>
+        <v>21.866666666666656</v>
+      </c>
+      <c r="I26">
+        <v>-2.5649999999999999</v>
+      </c>
       <c r="J26">
-        <v>2.355</v>
+        <v>5.1289999999999996</v>
       </c>
       <c r="K26">
-        <v>9.2669999999999995</v>
+        <v>11.762</v>
       </c>
       <c r="L26">
-        <v>14.558999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="M26">
-        <v>17.641999999999999</v>
-      </c>
-      <c r="N26">
-        <v>19.356000000000002</v>
-      </c>
-      <c r="O26">
-        <v>20.093</v>
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="27" spans="6:38" x14ac:dyDescent="0.35">
+      <c r="Y27">
+        <v>10</v>
+      </c>
+      <c r="Z27">
+        <v>61.35</v>
+      </c>
+      <c r="AB27">
+        <v>10</v>
+      </c>
+      <c r="AC27">
+        <v>84.942999999999998</v>
+      </c>
+      <c r="AE27">
+        <v>10</v>
+      </c>
+      <c r="AF27">
+        <v>127.2595</v>
       </c>
     </row>
     <row r="28" spans="6:38" x14ac:dyDescent="0.35">
       <c r="F28">
         <v>6</v>
       </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="J28">
+        <f>76/64</f>
         <v>1.1875</v>
       </c>
       <c r="K28">
+        <f>83/64</f>
+        <v>1.296875</v>
+      </c>
+      <c r="L28">
+        <f>89/64</f>
         <v>1.390625</v>
       </c>
-      <c r="L28">
-        <v>1.59375</v>
+      <c r="M28">
+        <f>76/64</f>
+        <v>1.1875</v>
+      </c>
+      <c r="N28">
+        <f>128/64</f>
+        <v>2</v>
+      </c>
+      <c r="AE28">
+        <v>10</v>
+      </c>
+      <c r="AF28">
+        <v>202.890625</v>
       </c>
     </row>
     <row r="29" spans="6:38" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <f>(K29-L29)/(K28-L28)</f>
+        <v>57.802666666666653</v>
+      </c>
+      <c r="I29">
+        <v>-6.2850000000000001</v>
+      </c>
       <c r="J29">
-        <v>5.4740000000000002</v>
+        <v>6.0659999999999998</v>
       </c>
       <c r="K29">
-        <v>16.332999999999998</v>
+        <v>12.336</v>
       </c>
       <c r="L29">
-        <v>21.678000000000001</v>
+        <v>17.754999999999999</v>
+      </c>
+      <c r="AE29">
+        <v>10</v>
+      </c>
+      <c r="AF29">
+        <v>515.37687500000004</v>
       </c>
     </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:38" x14ac:dyDescent="0.35">
+      <c r="AE30">
+        <v>10</v>
+      </c>
+      <c r="AF30">
+        <v>885.62678125000002</v>
+      </c>
+    </row>
+    <row r="31" spans="6:38" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J31">
+        <v>1.2</v>
+      </c>
+      <c r="K31">
+        <v>1.25</v>
+      </c>
+      <c r="AE31">
+        <v>10</v>
+      </c>
+      <c r="AF31">
+        <v>1261.797</v>
+      </c>
+    </row>
+    <row r="32" spans="6:38" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <f>(J32-K32)/(J31-K31)</f>
+        <v>142.23999999999987</v>
+      </c>
+      <c r="I32">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J32">
+        <v>12.185</v>
+      </c>
+      <c r="K32">
+        <v>19.297000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="7:31" x14ac:dyDescent="0.35">
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>7</v>
+      </c>
+      <c r="V33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="7:31" x14ac:dyDescent="0.35">
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34">
+        <v>5.5</v>
+      </c>
+      <c r="Q34">
+        <v>8.5</v>
+      </c>
+      <c r="R34">
+        <v>13.4</v>
+      </c>
+      <c r="S34">
+        <v>21.9</v>
+      </c>
+      <c r="T34">
+        <v>57.8</v>
+      </c>
+      <c r="U34">
+        <f>(T34+V34)/2</f>
+        <v>99.9</v>
+      </c>
+      <c r="V34">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="7:31" x14ac:dyDescent="0.35">
       <c r="G35">
         <v>64</v>
       </c>
+      <c r="O35" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35">
+        <v>3.5</v>
+      </c>
+      <c r="Q35">
+        <f>20/8</f>
+        <v>2.5</v>
+      </c>
+      <c r="R35">
+        <f>35/16</f>
+        <v>2.1875</v>
+      </c>
+      <c r="S35">
+        <f>57/32</f>
+        <v>1.78125</v>
+      </c>
+      <c r="T35">
+        <f>89/64</f>
+        <v>1.390625</v>
+      </c>
+      <c r="U35">
+        <f>(T35+V35)/2</f>
+        <v>1.3203125</v>
+      </c>
+      <c r="V35">
+        <v>1.25</v>
+      </c>
     </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="7:31" x14ac:dyDescent="0.35">
+      <c r="O36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36">
+        <v>25.6</v>
+      </c>
+      <c r="Q36">
+        <v>21.193000000000001</v>
+      </c>
+      <c r="R36">
+        <v>22.571999999999999</v>
+      </c>
+      <c r="S36">
+        <v>22.9</v>
+      </c>
+      <c r="T36">
+        <v>17.754999999999999</v>
+      </c>
+      <c r="U36">
+        <f>(T36+V36)/2</f>
+        <v>18.526</v>
+      </c>
+      <c r="V36">
+        <v>19.297000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="7:31" x14ac:dyDescent="0.35">
       <c r="H37">
         <v>76</v>
       </c>
@@ -29751,8 +30105,50 @@
         <f>I37</f>
         <v>5.4740000000000002</v>
       </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="7:31" x14ac:dyDescent="0.35">
       <c r="H38">
         <v>89</v>
       </c>
@@ -29760,15 +30156,67 @@
         <v>16.332999999999998</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K53" si="2">H38/G$35</f>
+        <f t="shared" ref="K38:K53" si="3">H38/G$35</f>
         <v>1.390625</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:L49" si="3">I38</f>
+        <f t="shared" ref="L38:L49" si="4">I38</f>
         <v>16.332999999999998</v>
       </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38">
+        <f>P36-P34*P35</f>
+        <v>6.3500000000000014</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38:V38" si="5">Q36-Q34*Q35</f>
+        <v>-5.6999999999998607E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="5"/>
+        <v>-6.7405000000000008</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="5"/>
+        <v>-16.109375</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="5"/>
+        <v>-62.623125000000002</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="5"/>
+        <v>-113.37321875000002</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="5"/>
+        <v>-158.203</v>
+      </c>
+      <c r="Y38">
+        <v>6.3500000000000014</v>
+      </c>
+      <c r="Z38">
+        <v>-5.6999999999998607E-2</v>
+      </c>
+      <c r="AA38">
+        <v>-6.7405000000000008</v>
+      </c>
+      <c r="AB38">
+        <v>-16.109375</v>
+      </c>
+      <c r="AC38">
+        <v>-62.623125000000002</v>
+      </c>
+      <c r="AD38">
+        <v>-113.37321875000002</v>
+      </c>
+      <c r="AE38">
+        <v>-158.203</v>
+      </c>
     </row>
-    <row r="39" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="7:31" x14ac:dyDescent="0.35">
       <c r="H39">
         <v>102</v>
       </c>
@@ -29776,135 +30224,267 @@
         <v>21.678000000000001</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.59375</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.678000000000001</v>
       </c>
+      <c r="P39" t="str">
+        <f>CONCATENATE(P33,"*")</f>
+        <v>2*</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" ref="Q39:V39" si="6">CONCATENATE(Q33,"*")</f>
+        <v>3*</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="6"/>
+        <v>4*</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="6"/>
+        <v>5*</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="6"/>
+        <v>6*</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="6"/>
+        <v>7*</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="6"/>
+        <v>8*</v>
+      </c>
     </row>
-    <row r="40" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="7:31" x14ac:dyDescent="0.35">
       <c r="K40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f>P$34*$O40+P$38</f>
+        <v>6.3500000000000014</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ref="Q40:V41" si="7">Q$34*$O40+Q$38</f>
+        <v>-5.6999999999998607E-2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="7"/>
+        <v>-6.7405000000000008</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="7"/>
+        <v>-16.109375</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="7"/>
+        <v>-62.623125000000002</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="7"/>
+        <v>-113.37321875000002</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="7"/>
+        <v>-158.203</v>
+      </c>
+      <c r="Y40">
+        <v>10</v>
+      </c>
+      <c r="Z40">
+        <v>10</v>
+      </c>
+      <c r="AA40">
+        <v>10</v>
+      </c>
+      <c r="AB40">
+        <v>10</v>
+      </c>
+      <c r="AC40">
+        <v>10</v>
+      </c>
+      <c r="AD40">
+        <v>10</v>
+      </c>
+      <c r="AE40">
+        <v>10</v>
+      </c>
     </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="7:31" x14ac:dyDescent="0.35">
       <c r="K41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <f>P$34*$O41+P$38</f>
+        <v>61.35</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>84.942999999999998</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="7"/>
+        <v>127.2595</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="7"/>
+        <v>202.890625</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="7"/>
+        <v>515.37687500000004</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="7"/>
+        <v>885.62678125000002</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="7"/>
+        <v>1261.797</v>
+      </c>
+      <c r="Y41">
+        <v>61.35</v>
+      </c>
+      <c r="Z41">
+        <v>84.942999999999998</v>
+      </c>
+      <c r="AA41">
+        <v>127.2595</v>
+      </c>
+      <c r="AB41">
+        <v>202.890625</v>
+      </c>
+      <c r="AC41">
+        <v>515.37687500000004</v>
+      </c>
+      <c r="AD41">
+        <v>885.62678125000002</v>
+      </c>
+      <c r="AE41">
+        <v>1261.797</v>
+      </c>
     </row>
-    <row r="42" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="7:31" x14ac:dyDescent="0.35">
       <c r="K42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="7:31" x14ac:dyDescent="0.35">
       <c r="K43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="7:31" x14ac:dyDescent="0.35">
       <c r="K44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="7:31" x14ac:dyDescent="0.35">
       <c r="K45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="7:31" x14ac:dyDescent="0.35">
       <c r="K46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="7:31" x14ac:dyDescent="0.35">
       <c r="K47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="7:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="7:31" x14ac:dyDescent="0.35">
       <c r="K48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -29927,142 +30507,142 @@
         <v>10</v>
       </c>
       <c r="U56">
-        <f t="shared" ref="U56:AD56" si="4">V56-0.01</f>
+        <f t="shared" ref="U56:AD56" si="8">V56-0.01</f>
         <v>1.0999999999999999</v>
       </c>
       <c r="V56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1099999999999999</v>
       </c>
       <c r="W56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1199999999999999</v>
       </c>
       <c r="X56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.17</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.18</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.19</v>
       </c>
       <c r="AE56">
         <v>1.2</v>
       </c>
       <c r="AF56">
-        <f t="shared" ref="AF56:AY56" si="5">AE56+0.01</f>
+        <f t="shared" ref="AF56:AY56" si="9">AE56+0.01</f>
         <v>1.21</v>
       </c>
       <c r="AG56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.22</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.23</v>
       </c>
       <c r="AI56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.24</v>
       </c>
       <c r="AJ56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.25</v>
       </c>
       <c r="AK56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.26</v>
       </c>
       <c r="AL56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.27</v>
       </c>
       <c r="AM56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.28</v>
       </c>
       <c r="AN56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.29</v>
       </c>
       <c r="AO56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
       <c r="AP56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.31</v>
       </c>
       <c r="AQ56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.32</v>
       </c>
       <c r="AR56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.34</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.35</v>
       </c>
       <c r="AU56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.36</v>
       </c>
       <c r="AV56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.37</v>
       </c>
       <c r="AW56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.3800000000000001</v>
       </c>
       <c r="AX56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.3900000000000001</v>
       </c>
       <c r="AY56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="57" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K57">
-        <f t="shared" ref="K57:K65" si="6">K58+2</f>
+        <f t="shared" ref="K57:K65" si="10">K58+2</f>
         <v>24</v>
       </c>
       <c r="T57">
-        <f t="shared" ref="T57:T65" si="7">T58+2</f>
+        <f t="shared" ref="T57:T65" si="11">T58+2</f>
         <v>24</v>
       </c>
     </row>
     <row r="58" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="L58">
@@ -30077,137 +30657,137 @@
         <v>-278</v>
       </c>
       <c r="T58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="U58">
-        <f t="shared" ref="U58:U68" si="8">$M58*U$56+$P58</f>
+        <f t="shared" ref="U58:U68" si="12">$M58*U$56+$P58</f>
         <v>-14.000000000000057</v>
       </c>
       <c r="V58">
-        <f t="shared" ref="V58:AY66" si="9">$M58*V$56+$P58</f>
+        <f t="shared" ref="V58:AY66" si="13">$M58*V$56+$P58</f>
         <v>-11.600000000000023</v>
       </c>
       <c r="W58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-9.2000000000000455</v>
       </c>
       <c r="X58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-6.8000000000000114</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-4.4000000000000341</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.39999999999997726</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.7999999999999545</v>
       </c>
       <c r="AC58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.1999999999999886</v>
       </c>
       <c r="AD58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7.5999999999999659</v>
       </c>
       <c r="AE58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AF58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.399999999999977</v>
       </c>
       <c r="AG58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14.800000000000011</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17.199999999999989</v>
       </c>
       <c r="AI58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>19.600000000000023</v>
       </c>
       <c r="AJ58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="AK58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>24.399999999999977</v>
       </c>
       <c r="AL58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>26.800000000000011</v>
       </c>
       <c r="AM58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>29.199999999999989</v>
       </c>
       <c r="AN58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>31.600000000000023</v>
       </c>
       <c r="AO58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="AP58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>36.400000000000034</v>
       </c>
       <c r="AQ58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>38.800000000000011</v>
       </c>
       <c r="AR58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>41.200000000000045</v>
       </c>
       <c r="AS58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>43.600000000000023</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="AU58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>48.400000000000034</v>
       </c>
       <c r="AV58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>50.800000000000011</v>
       </c>
       <c r="AW58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>53.200000000000045</v>
       </c>
       <c r="AX58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>55.600000000000023</v>
       </c>
       <c r="AY58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>58.000000000000057</v>
       </c>
     </row>
     <row r="59" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="L59">
@@ -30222,141 +30802,141 @@
         <v>-276.09999999999997</v>
       </c>
       <c r="P59">
-        <f t="shared" ref="P59:P69" si="10">-K59-256</f>
+        <f t="shared" ref="P59:P69" si="14">-K59-256</f>
         <v>-276</v>
       </c>
       <c r="T59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="U59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-12.000000000000057</v>
       </c>
       <c r="V59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-9.6000000000000227</v>
       </c>
       <c r="W59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-7.2000000000000455</v>
       </c>
       <c r="X59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-4.8000000000000114</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-2.4000000000000341</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.3999999999999773</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.7999999999999545</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7.1999999999999886</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.5999999999999659</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AF59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14.399999999999977</v>
       </c>
       <c r="AG59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>16.800000000000011</v>
       </c>
       <c r="AH59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>19.199999999999989</v>
       </c>
       <c r="AI59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>21.600000000000023</v>
       </c>
       <c r="AJ59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="AK59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>26.399999999999977</v>
       </c>
       <c r="AL59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>28.800000000000011</v>
       </c>
       <c r="AM59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>31.199999999999989</v>
       </c>
       <c r="AN59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>33.600000000000023</v>
       </c>
       <c r="AO59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="AP59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>38.400000000000034</v>
       </c>
       <c r="AQ59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>40.800000000000011</v>
       </c>
       <c r="AR59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>43.200000000000045</v>
       </c>
       <c r="AS59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>45.600000000000023</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="AU59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>50.400000000000034</v>
       </c>
       <c r="AV59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>52.800000000000011</v>
       </c>
       <c r="AW59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>55.200000000000045</v>
       </c>
       <c r="AX59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>57.600000000000023</v>
       </c>
       <c r="AY59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>60.000000000000057</v>
       </c>
     </row>
     <row r="60" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="L60">
@@ -30371,141 +30951,141 @@
         <v>-273.95</v>
       </c>
       <c r="P60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-274</v>
       </c>
       <c r="T60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="U60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-10.000000000000057</v>
       </c>
       <c r="V60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-7.6000000000000227</v>
       </c>
       <c r="W60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-5.2000000000000455</v>
       </c>
       <c r="X60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-2.8000000000000114</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-0.40000000000003411</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.3999999999999773</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.7999999999999545</v>
       </c>
       <c r="AC60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.1999999999999886</v>
       </c>
       <c r="AD60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>11.599999999999966</v>
       </c>
       <c r="AE60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="AF60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>16.399999999999977</v>
       </c>
       <c r="AG60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18.800000000000011</v>
       </c>
       <c r="AH60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>21.199999999999989</v>
       </c>
       <c r="AI60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>23.600000000000023</v>
       </c>
       <c r="AJ60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="AK60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>28.399999999999977</v>
       </c>
       <c r="AL60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.800000000000011</v>
       </c>
       <c r="AM60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>33.199999999999989</v>
       </c>
       <c r="AN60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>35.600000000000023</v>
       </c>
       <c r="AO60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="AP60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>40.400000000000034</v>
       </c>
       <c r="AQ60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>42.800000000000011</v>
       </c>
       <c r="AR60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>45.200000000000045</v>
       </c>
       <c r="AS60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>47.600000000000023</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="AU60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>52.400000000000034</v>
       </c>
       <c r="AV60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>54.800000000000011</v>
       </c>
       <c r="AW60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>57.200000000000045</v>
       </c>
       <c r="AX60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>59.600000000000023</v>
       </c>
       <c r="AY60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>62.000000000000057</v>
       </c>
     </row>
     <row r="61" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L61">
@@ -30520,141 +31100,141 @@
         <v>-271.94999999999993</v>
       </c>
       <c r="P61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-272</v>
       </c>
       <c r="T61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="U61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-8.0000000000000568</v>
       </c>
       <c r="V61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-5.6000000000000227</v>
       </c>
       <c r="W61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-3.2000000000000455</v>
       </c>
       <c r="X61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-0.80000000000001137</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5999999999999659</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AA61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.3999999999999773</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.7999999999999545</v>
       </c>
       <c r="AC61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>11.199999999999989</v>
       </c>
       <c r="AD61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13.599999999999966</v>
       </c>
       <c r="AE61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="AF61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18.399999999999977</v>
       </c>
       <c r="AG61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>20.800000000000011</v>
       </c>
       <c r="AH61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>23.199999999999989</v>
       </c>
       <c r="AI61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>25.600000000000023</v>
       </c>
       <c r="AJ61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="AK61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30.399999999999977</v>
       </c>
       <c r="AL61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>32.800000000000011</v>
       </c>
       <c r="AM61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>35.199999999999989</v>
       </c>
       <c r="AN61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>37.600000000000023</v>
       </c>
       <c r="AO61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="AP61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>42.400000000000034</v>
       </c>
       <c r="AQ61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44.800000000000011</v>
       </c>
       <c r="AR61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>47.200000000000045</v>
       </c>
       <c r="AS61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>49.600000000000023</v>
       </c>
       <c r="AT61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
       <c r="AU61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>54.400000000000034</v>
       </c>
       <c r="AV61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>56.800000000000011</v>
       </c>
       <c r="AW61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>59.200000000000045</v>
       </c>
       <c r="AX61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>61.600000000000023</v>
       </c>
       <c r="AY61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>64.000000000000057</v>
       </c>
     </row>
     <row r="62" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="L62">
@@ -30669,141 +31249,141 @@
         <v>-269.99999999999994</v>
       </c>
       <c r="P62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-270</v>
       </c>
       <c r="T62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="U62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-6.0000000000000568</v>
       </c>
       <c r="V62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-3.6000000000000227</v>
       </c>
       <c r="W62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1.2000000000000455</v>
       </c>
       <c r="X62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1999999999999886</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.5999999999999659</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8.3999999999999773</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10.799999999999955</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13.199999999999989</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>15.599999999999966</v>
       </c>
       <c r="AE62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="AF62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>20.399999999999977</v>
       </c>
       <c r="AG62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>22.800000000000011</v>
       </c>
       <c r="AH62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>25.199999999999989</v>
       </c>
       <c r="AI62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>27.600000000000023</v>
       </c>
       <c r="AJ62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="AK62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>32.399999999999977</v>
       </c>
       <c r="AL62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>34.800000000000011</v>
       </c>
       <c r="AM62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>37.199999999999989</v>
       </c>
       <c r="AN62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>39.600000000000023</v>
       </c>
       <c r="AO62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="AP62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44.400000000000034</v>
       </c>
       <c r="AQ62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>46.800000000000011</v>
       </c>
       <c r="AR62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>49.200000000000045</v>
       </c>
       <c r="AS62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>51.600000000000023</v>
       </c>
       <c r="AT62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="AU62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>56.400000000000034</v>
       </c>
       <c r="AV62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>58.800000000000011</v>
       </c>
       <c r="AW62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>61.200000000000045</v>
       </c>
       <c r="AX62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>63.600000000000023</v>
       </c>
       <c r="AY62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>66.000000000000057</v>
       </c>
     </row>
     <row r="63" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="L63">
@@ -30818,141 +31398,141 @@
         <v>-268.7</v>
       </c>
       <c r="P63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-268</v>
       </c>
       <c r="T63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="U63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-4.0000000000000568</v>
       </c>
       <c r="V63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-1.6000000000000227</v>
       </c>
       <c r="W63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.79999999999995453</v>
       </c>
       <c r="X63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.1999999999999886</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.5999999999999659</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10.399999999999977</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.799999999999955</v>
       </c>
       <c r="AC63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>15.199999999999989</v>
       </c>
       <c r="AD63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17.599999999999966</v>
       </c>
       <c r="AE63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="AF63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>22.399999999999977</v>
       </c>
       <c r="AG63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>24.800000000000011</v>
       </c>
       <c r="AH63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>27.199999999999989</v>
       </c>
       <c r="AI63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>29.600000000000023</v>
       </c>
       <c r="AJ63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="AK63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>34.399999999999977</v>
       </c>
       <c r="AL63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>36.800000000000011</v>
       </c>
       <c r="AM63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>39.199999999999989</v>
       </c>
       <c r="AN63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>41.600000000000023</v>
       </c>
       <c r="AO63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="AP63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>46.400000000000034</v>
       </c>
       <c r="AQ63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>48.800000000000011</v>
       </c>
       <c r="AR63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>51.200000000000045</v>
       </c>
       <c r="AS63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>53.600000000000023</v>
       </c>
       <c r="AT63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="AU63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>58.400000000000034</v>
       </c>
       <c r="AV63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>60.800000000000011</v>
       </c>
       <c r="AW63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>63.200000000000045</v>
       </c>
       <c r="AX63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>65.600000000000023</v>
       </c>
       <c r="AY63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>68.000000000000057</v>
       </c>
     </row>
     <row r="64" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="M64">
@@ -30963,141 +31543,141 @@
         <v>-270.2</v>
       </c>
       <c r="P64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-266</v>
       </c>
       <c r="T64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="U64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-2.0000000000000568</v>
       </c>
       <c r="V64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.39999999999997726</v>
       </c>
       <c r="W64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.7999999999999545</v>
       </c>
       <c r="X64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.1999999999999886</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7.5999999999999659</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AA64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>12.399999999999977</v>
       </c>
       <c r="AB64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>14.799999999999955</v>
       </c>
       <c r="AC64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>17.199999999999989</v>
       </c>
       <c r="AD64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>19.599999999999966</v>
       </c>
       <c r="AE64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="AF64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>24.399999999999977</v>
       </c>
       <c r="AG64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>26.800000000000011</v>
       </c>
       <c r="AH64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>29.199999999999989</v>
       </c>
       <c r="AI64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>31.600000000000023</v>
       </c>
       <c r="AJ64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="AK64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>36.399999999999977</v>
       </c>
       <c r="AL64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>38.800000000000011</v>
       </c>
       <c r="AM64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>41.199999999999989</v>
       </c>
       <c r="AN64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>43.600000000000023</v>
       </c>
       <c r="AO64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="AP64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>48.400000000000034</v>
       </c>
       <c r="AQ64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>50.800000000000011</v>
       </c>
       <c r="AR64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>53.200000000000045</v>
       </c>
       <c r="AS64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>55.600000000000023</v>
       </c>
       <c r="AT64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>58</v>
       </c>
       <c r="AU64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>60.400000000000034</v>
       </c>
       <c r="AV64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>62.800000000000011</v>
       </c>
       <c r="AW64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>65.200000000000045</v>
       </c>
       <c r="AX64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>67.600000000000023</v>
       </c>
       <c r="AY64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>70.000000000000057</v>
       </c>
     </row>
     <row r="65" spans="11:51" x14ac:dyDescent="0.35">
       <c r="K65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L65">
@@ -31109,135 +31689,135 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-264</v>
       </c>
       <c r="T65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="U65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-264</v>
       </c>
       <c r="V65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="W65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="X65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="Y65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AC65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AD65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AE65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AF65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AG65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AH65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AI65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AJ65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AK65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AL65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AM65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AN65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AO65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AP65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AQ65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AR65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AS65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AT65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AU65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AV65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AW65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AX65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
       <c r="AY65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-264</v>
       </c>
     </row>
@@ -31248,14 +31828,14 @@
       </c>
       <c r="L66">
         <f>(AA16-Q16)/(AA$4-Q$4)</f>
-        <v>22.499999999999979</v>
+        <v>17.499999999999986</v>
       </c>
       <c r="O66">
         <f>V16-M66*V$4</f>
         <v>3.75</v>
       </c>
       <c r="P66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-262</v>
       </c>
       <c r="T66">
@@ -31263,127 +31843,127 @@
         <v>6</v>
       </c>
       <c r="U66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-262</v>
       </c>
       <c r="V66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="W66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="X66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="AA66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="AB66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="AC66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="AD66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="AE66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="AF66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="AG66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="AH66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="AI66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="AJ66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>-262</v>
       </c>
       <c r="AK66">
-        <f t="shared" ref="AK66:AY68" si="11">$M66*AK$56+$P66</f>
+        <f t="shared" ref="AK66:AY68" si="15">$M66*AK$56+$P66</f>
         <v>-262</v>
       </c>
       <c r="AL66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AM66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AN66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AO66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AP66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AQ66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AR66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AS66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AT66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AU66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AV66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AW66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AX66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
       <c r="AY66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-262</v>
       </c>
     </row>
@@ -31393,141 +31973,141 @@
       </c>
       <c r="L67">
         <f>(AK17-Q17)/(AK$4-Q$4)</f>
-        <v>-29.041499999999974</v>
+        <v>-85.339999999999918</v>
       </c>
       <c r="O67">
         <f>AA17-M67*AA$4</f>
-        <v>18.87</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-260</v>
       </c>
       <c r="T67">
         <v>4</v>
       </c>
       <c r="U67">
-        <f t="shared" si="8"/>
-        <v>-260</v>
-      </c>
-      <c r="V67">
-        <f t="shared" ref="V67:AJ68" si="12">$M67*V$56+$P67</f>
-        <v>-260</v>
-      </c>
-      <c r="W67">
         <f t="shared" si="12"/>
         <v>-260</v>
       </c>
+      <c r="V67">
+        <f t="shared" ref="V67:AJ68" si="16">$M67*V$56+$P67</f>
+        <v>-260</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="16"/>
+        <v>-260</v>
+      </c>
       <c r="X67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="AA67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="AB67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="AC67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="AD67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="AE67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="AF67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="AG67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="AH67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="AI67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="AJ67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-260</v>
       </c>
       <c r="AK67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AL67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AM67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AN67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AO67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AP67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AQ67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AR67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AS67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AT67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AU67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AV67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AW67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AX67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
       <c r="AY67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-260</v>
       </c>
     </row>
@@ -31544,134 +32124,134 @@
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-258</v>
       </c>
       <c r="T68">
         <v>2</v>
       </c>
       <c r="U68">
-        <f t="shared" si="8"/>
-        <v>-258</v>
-      </c>
-      <c r="V68">
         <f t="shared" si="12"/>
         <v>-258</v>
       </c>
+      <c r="V68">
+        <f t="shared" si="16"/>
+        <v>-258</v>
+      </c>
       <c r="W68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="X68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="AA68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="AB68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="AC68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="AD68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="AE68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="AF68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="AG68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="AH68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="AI68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="AJ68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-258</v>
       </c>
       <c r="AK68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AL68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AM68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AN68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AO68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AP68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AQ68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AR68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AS68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AT68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AU68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AV68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AW68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AX68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
       <c r="AY68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-258</v>
       </c>
     </row>
@@ -31686,7 +32266,7 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-256</v>
       </c>
     </row>
@@ -31878,7 +32458,7 @@
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C20" s="5">
-        <f t="shared" ref="C20:C23" si="0">POWER(2,D20)</f>
+        <f>POWER(2,D20)</f>
         <v>1048576</v>
       </c>
       <c r="D20" s="5">
@@ -31892,7 +32472,7 @@
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C21" s="5">
-        <f t="shared" si="0"/>
+        <f>POWER(2,D21)</f>
         <v>262144</v>
       </c>
       <c r="D21" s="5">
@@ -31906,7 +32486,7 @@
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C22" s="5">
-        <f t="shared" si="0"/>
+        <f>POWER(2,D22)</f>
         <v>65536</v>
       </c>
       <c r="D22" s="5">
@@ -31923,7 +32503,7 @@
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C23" s="5">
-        <f t="shared" si="0"/>
+        <f>POWER(2,D23)</f>
         <v>16384</v>
       </c>
       <c r="D23" s="5">
@@ -31940,11 +32520,11 @@
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C24" s="5">
-        <f t="shared" ref="C24:C29" si="1">POWER(2,D24)</f>
+        <f t="shared" ref="C24:C29" si="0">POWER(2,D24)</f>
         <v>4096</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" ref="D24:D29" si="2">D25+1</f>
+        <f t="shared" ref="D24:D29" si="1">D25+1</f>
         <v>12</v>
       </c>
       <c r="J24" s="5">
@@ -31957,33 +32537,33 @@
         <v>23.81</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" ref="W24:AA29" si="3">I24-I25</f>
+        <f t="shared" ref="W24:AA29" si="2">I24-I25</f>
         <v>-19.524000000000001</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.98600000000000065</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0399999999999991</v>
       </c>
       <c r="Z24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2099999999999973</v>
       </c>
       <c r="AA24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="D25" s="5">
         <f t="shared" si="1"/>
-        <v>2048</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F25" s="5">
@@ -32002,33 +32582,33 @@
         <v>22.6</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0440000000000005</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="Y25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Z25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0300000000000011</v>
       </c>
       <c r="AA25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="D26" s="5">
         <f t="shared" si="1"/>
-        <v>1024</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E26" s="5">
@@ -32056,33 +32636,33 @@
         <v>21.57</v>
       </c>
       <c r="W26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.85000000000000142</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.96999999999999886</v>
       </c>
       <c r="Y26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.97000000000000242</v>
       </c>
       <c r="Z26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.99000000000000199</v>
       </c>
       <c r="AA26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-21.45</v>
       </c>
     </row>
     <row r="27" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="D27" s="5">
         <f t="shared" si="1"/>
-        <v>512</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E27" s="5">
@@ -32113,33 +32693,33 @@
         <v>21.45</v>
       </c>
       <c r="W27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0689999999999991</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.99500000000000099</v>
       </c>
       <c r="Y27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0299999999999976</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.91499999999999915</v>
       </c>
       <c r="AA27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0500000000000007</v>
       </c>
     </row>
     <row r="28" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="D28" s="5">
         <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="D28" s="5">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E28" s="5">
@@ -32170,33 +32750,33 @@
         <v>20.399999999999999</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.016</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.98199999999999932</v>
       </c>
       <c r="Y28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.95500000000000185</v>
       </c>
       <c r="Z28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.97499999999999787</v>
       </c>
       <c r="AA28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D29" s="5">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E29" s="5">
@@ -32233,23 +32813,23 @@
         <v>22.1</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.88299999999999912</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.92799999999999905</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.98999999999999844</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0100000000000016</v>
       </c>
       <c r="AA29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0499999999999972</v>
       </c>
     </row>
@@ -32386,397 +32966,397 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D34" s="5">
-        <f t="shared" ref="D34:D39" si="4">D35+1</f>
+        <f t="shared" ref="D34:D39" si="3">D35+1</f>
         <v>12</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" ref="E34:S34" si="5">(E24-F24)/(E$19-F$19)</f>
+        <f t="shared" ref="E34:S34" si="4">(E24-F24)/(E$19-F$19)</f>
         <v>0</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.943</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.47700000000000031</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.48499999999999943</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-11.904999999999999</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" ref="E35:S35" si="6">(E25-F25)/(E$19-F$19)</f>
+        <f t="shared" ref="E35:S35" si="5">(E25-F25)/(E$19-F$19)</f>
         <v>11.51</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-11.51</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9.7620000000000005</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.68799999999999883</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.45000000000000107</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="L35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-11.3</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" ref="E36:S36" si="7">(E26-F26)/(E$19-F$19)</f>
+        <f t="shared" ref="E36:S36" si="6">(E26-F26)/(E$19-F$19)</f>
         <v>8.120000000000001</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.0499999999999989</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.5500000000000007</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.88499999999999979</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.66499999999999915</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.49500000000000099</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.38499999999999979</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-10.785</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" ref="E37:S37" si="8">(E27-F27)/(E$19-F$19)</f>
+        <f t="shared" ref="E37:S37" si="7">(E27-F27)/(E$19-F$19)</f>
         <v>7.07</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.0500000000000007</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.54</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.94999999999999929</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.60500000000000043</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.49499999999999922</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.4350000000000005</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>-10.725</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" ref="E38:S38" si="9">(E28-F28)/(E$19-F$19)</f>
+        <f t="shared" ref="E38:S38" si="8">(E28-F28)/(E$19-F$19)</f>
         <v>6.1700000000000008</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.8699999999999992</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5350000000000001</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.91049999999999986</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.64199999999999946</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.47750000000000092</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.43249999999999922</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.36749999999999972</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-10.199999999999999</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" ref="E39:S39" si="10">(E29-F29)/(E$19-F$19)</f>
+        <f t="shared" ref="E39:S39" si="9">(E29-F29)/(E$19-F$19)</f>
         <v>5.23</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.7699999999999996</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.5150000000000006</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.87249999999999961</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.65899999999999981</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.49099999999999966</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.42250000000000121</v>
       </c>
       <c r="L39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.35499999999999865</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-9.6999999999999993</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.34</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.1850000000000005</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-5.5250000000000004</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -32785,63 +33365,63 @@
         <v>6</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" ref="E40:S40" si="11">(E30-F30)/(E$19-F$19)</f>
+        <f t="shared" ref="E40:S40" si="10">(E30-F30)/(E$19-F$19)</f>
         <v>4.4609999999999994</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5389999999999997</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.4580000000000002</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.89800000000000058</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.63649999999999984</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.41249999999999964</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.33500000000000085</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.29699999999999882</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.25200000000000067</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.23299999999999965</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.1875</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.14749999999999996</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.13125000000000009</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9.9000000000000199E-2</v>
       </c>
     </row>
@@ -32867,389 +33447,389 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C43" s="5" t="str">
-        <f t="shared" ref="C43:C49" si="12">CONCATENATE(D43,"p")</f>
+        <f t="shared" ref="C43:C49" si="11">CONCATENATE(D43,"p")</f>
         <v>28p</v>
       </c>
       <c r="D43" s="5">
         <v>28</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" ref="E43:N51" si="13">$B$48*LOG(E$19,2)+$A$48-($B$50*$D43+$B$49)*POWER(E$19,-$A$49)+$D43</f>
+        <f t="shared" ref="E43:N51" si="12">$B$48*LOG(E$19,2)+$A$48-($B$50*$D43+$B$49)*POWER(E$19,-$A$49)+$D43</f>
         <v>3.2763889243179243</v>
       </c>
       <c r="F43" s="5">
+        <f t="shared" si="12"/>
+        <v>22.551271646246221</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="12"/>
+        <v>28.987500000000001</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="12"/>
+        <v>33.983980787617732</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="12"/>
+        <v>36.249262153884935</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="12"/>
+        <v>37.675371953462367</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="12"/>
+        <v>38.721654233438144</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="12"/>
+        <v>39.554280267001758</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" si="12"/>
+        <v>40.249609374999999</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="12"/>
+        <v>40.848721183460526</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" ref="O43:U51" si="13">$B$48*LOG(O$19,2)+$A$48-($B$50*$D43+$B$49)*POWER(O$19,-$A$49)+$D43</f>
+        <v>41.376274095994553</v>
+      </c>
+      <c r="P43" s="5">
         <f t="shared" si="13"/>
-        <v>22.551271646246221</v>
-      </c>
-      <c r="G43" s="5">
+        <v>42.275801394105997</v>
+      </c>
+      <c r="Q43" s="5">
         <f t="shared" si="13"/>
-        <v>28.987500000000001</v>
-      </c>
-      <c r="H43" s="5">
+        <v>43.027149732048116</v>
+      </c>
+      <c r="R43" s="5">
         <f t="shared" si="13"/>
-        <v>33.983980787617732</v>
-      </c>
-      <c r="I43" s="5">
+        <v>43.673414442308903</v>
+      </c>
+      <c r="S43" s="5">
         <f t="shared" si="13"/>
-        <v>36.249262153884935</v>
-      </c>
-      <c r="J43" s="5">
+        <v>44.747144251888734</v>
+      </c>
+      <c r="T43" s="5">
         <f t="shared" si="13"/>
-        <v>37.675371953462367</v>
-      </c>
-      <c r="K43" s="5">
+        <v>45.816013870712368</v>
+      </c>
+      <c r="U43" s="5">
         <f t="shared" si="13"/>
-        <v>38.721654233438144</v>
-      </c>
-      <c r="L43" s="5">
-        <f t="shared" si="13"/>
-        <v>39.554280267001758</v>
-      </c>
-      <c r="M43" s="5">
-        <f t="shared" si="13"/>
-        <v>40.249609374999999</v>
-      </c>
-      <c r="N43" s="5">
-        <f t="shared" si="13"/>
-        <v>40.848721183460526</v>
-      </c>
-      <c r="O43" s="5">
-        <f t="shared" ref="O43:U51" si="14">$B$48*LOG(O$19,2)+$A$48-($B$50*$D43+$B$49)*POWER(O$19,-$A$49)+$D43</f>
-        <v>41.376274095994553</v>
-      </c>
-      <c r="P43" s="5">
-        <f t="shared" si="14"/>
-        <v>42.275801394105997</v>
-      </c>
-      <c r="Q43" s="5">
-        <f t="shared" si="14"/>
-        <v>43.027149732048116</v>
-      </c>
-      <c r="R43" s="5">
-        <f t="shared" si="14"/>
-        <v>43.673414442308903</v>
-      </c>
-      <c r="S43" s="5">
-        <f t="shared" si="14"/>
-        <v>44.747144251888734</v>
-      </c>
-      <c r="T43" s="5">
-        <f t="shared" si="14"/>
-        <v>45.816013870712368</v>
-      </c>
-      <c r="U43" s="5">
-        <f t="shared" si="14"/>
         <v>48.059672443842857</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C44" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>24p</v>
       </c>
       <c r="D44" s="5">
         <v>24</v>
       </c>
       <c r="E44" s="5">
+        <f t="shared" si="12"/>
+        <v>2.8119228302506585</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="12"/>
+        <v>19.83427224444539</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="12"/>
+        <v>25.612500000000001</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="12"/>
+        <v>30.210785393430992</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="12"/>
+        <v>32.35974758844533</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="12"/>
+        <v>33.738617506665733</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="12"/>
+        <v>34.761748002131867</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="12"/>
+        <v>35.581551822298941</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" si="12"/>
+        <v>36.269140624999999</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="12"/>
+        <v>36.863270705707166</v>
+      </c>
+      <c r="O44" s="5">
         <f t="shared" si="13"/>
-        <v>2.8119228302506585</v>
-      </c>
-      <c r="F44" s="5">
+        <v>37.387454435882049</v>
+      </c>
+      <c r="P44" s="5">
         <f t="shared" si="13"/>
-        <v>19.83427224444539</v>
-      </c>
-      <c r="G44" s="5">
+        <v>38.282889038037666</v>
+      </c>
+      <c r="Q44" s="5">
         <f t="shared" si="13"/>
-        <v>25.612500000000001</v>
-      </c>
-      <c r="H44" s="5">
+        <v>39.031970707469149</v>
+      </c>
+      <c r="R44" s="5">
         <f t="shared" si="13"/>
-        <v>30.210785393430992</v>
-      </c>
-      <c r="I44" s="5">
+        <v>39.676867112138915</v>
+      </c>
+      <c r="S44" s="5">
         <f t="shared" si="13"/>
-        <v>32.35974758844533</v>
-      </c>
-      <c r="J44" s="5">
+        <v>40.74912067542634</v>
+      </c>
+      <c r="T44" s="5">
         <f t="shared" si="13"/>
-        <v>33.738617506665733</v>
-      </c>
-      <c r="K44" s="5">
+        <v>41.817145241562272</v>
+      </c>
+      <c r="U44" s="5">
         <f t="shared" si="13"/>
-        <v>34.761748002131867</v>
-      </c>
-      <c r="L44" s="5">
-        <f t="shared" si="13"/>
-        <v>35.581551822298941</v>
-      </c>
-      <c r="M44" s="5">
-        <f t="shared" si="13"/>
-        <v>36.269140624999999</v>
-      </c>
-      <c r="N44" s="5">
-        <f t="shared" si="13"/>
-        <v>36.863270705707166</v>
-      </c>
-      <c r="O44" s="5">
-        <f t="shared" si="14"/>
-        <v>37.387454435882049</v>
-      </c>
-      <c r="P44" s="5">
-        <f t="shared" si="14"/>
-        <v>38.282889038037666</v>
-      </c>
-      <c r="Q44" s="5">
-        <f t="shared" si="14"/>
-        <v>39.031970707469149</v>
-      </c>
-      <c r="R44" s="5">
-        <f t="shared" si="14"/>
-        <v>39.676867112138915</v>
-      </c>
-      <c r="S44" s="5">
-        <f t="shared" si="14"/>
-        <v>40.74912067542634</v>
-      </c>
-      <c r="T44" s="5">
-        <f t="shared" si="14"/>
-        <v>41.817145241562272</v>
-      </c>
-      <c r="U44" s="5">
-        <f t="shared" si="14"/>
         <v>44.060021829464347</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C45" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>12p</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" ref="D45:D50" si="14">D46+1</f>
+        <v>12</v>
+      </c>
+      <c r="E45" s="5">
         <f t="shared" si="12"/>
-        <v>12p</v>
-      </c>
-      <c r="D45" s="5">
-        <f t="shared" ref="D45:D49" si="15">D46+1</f>
-        <v>12</v>
-      </c>
-      <c r="E45" s="5">
+        <v>1.4185245480488717</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="12"/>
+        <v>11.683274039042894</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="12"/>
+        <v>15.487500000000001</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="12"/>
+        <v>18.891199210870763</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="12"/>
+        <v>20.691203892126524</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="12"/>
+        <v>21.928354166275838</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" si="12"/>
+        <v>22.882029308213035</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="12"/>
+        <v>23.663366488190505</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" si="12"/>
+        <v>24.327734374999999</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" si="12"/>
+        <v>24.906919272447073</v>
+      </c>
+      <c r="O45" s="5">
         <f t="shared" si="13"/>
-        <v>1.4185245480488717</v>
-      </c>
-      <c r="F45" s="5">
+        <v>25.420995455544549</v>
+      </c>
+      <c r="P45" s="5">
         <f t="shared" si="13"/>
-        <v>11.683274039042894</v>
-      </c>
-      <c r="G45" s="5">
+        <v>26.30415196983266</v>
+      </c>
+      <c r="Q45" s="5">
         <f t="shared" si="13"/>
-        <v>15.487500000000001</v>
-      </c>
-      <c r="H45" s="5">
+        <v>27.046433633732256</v>
+      </c>
+      <c r="R45" s="5">
         <f t="shared" si="13"/>
-        <v>18.891199210870763</v>
-      </c>
-      <c r="I45" s="5">
+        <v>27.687225121628956</v>
+      </c>
+      <c r="S45" s="5">
         <f t="shared" si="13"/>
-        <v>20.691203892126524</v>
-      </c>
-      <c r="J45" s="5">
+        <v>28.755049946039154</v>
+      </c>
+      <c r="T45" s="5">
         <f t="shared" si="13"/>
-        <v>21.928354166275838</v>
-      </c>
-      <c r="K45" s="5">
+        <v>29.820539354111965</v>
+      </c>
+      <c r="U45" s="5">
         <f t="shared" si="13"/>
-        <v>22.882029308213035</v>
-      </c>
-      <c r="L45" s="5">
-        <f t="shared" si="13"/>
-        <v>23.663366488190505</v>
-      </c>
-      <c r="M45" s="5">
-        <f t="shared" si="13"/>
-        <v>24.327734374999999</v>
-      </c>
-      <c r="N45" s="5">
-        <f t="shared" si="13"/>
-        <v>24.906919272447073</v>
-      </c>
-      <c r="O45" s="5">
-        <f t="shared" si="14"/>
-        <v>25.420995455544549</v>
-      </c>
-      <c r="P45" s="5">
-        <f t="shared" si="14"/>
-        <v>26.30415196983266</v>
-      </c>
-      <c r="Q45" s="5">
-        <f t="shared" si="14"/>
-        <v>27.046433633732256</v>
-      </c>
-      <c r="R45" s="5">
-        <f t="shared" si="14"/>
-        <v>27.687225121628956</v>
-      </c>
-      <c r="S45" s="5">
-        <f t="shared" si="14"/>
-        <v>28.755049946039154</v>
-      </c>
-      <c r="T45" s="5">
-        <f t="shared" si="14"/>
-        <v>29.820539354111965</v>
-      </c>
-      <c r="U45" s="5">
-        <f t="shared" si="14"/>
         <v>32.061069986328803</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C46" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>11p</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="E46" s="5">
         <f t="shared" si="12"/>
-        <v>11p</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="15"/>
-        <v>11</v>
-      </c>
-      <c r="E46" s="5">
+        <v>1.3024080245320562</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="12"/>
+        <v>11.004024188592686</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="12"/>
+        <v>14.643750000000001</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="12"/>
+        <v>17.947900362324077</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="12"/>
+        <v>19.718825250766624</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="12"/>
+        <v>20.944165554576678</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="12"/>
+        <v>21.892052750386469</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="12"/>
+        <v>22.670184377014799</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="12"/>
+        <v>23.332617187499999</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="12"/>
+        <v>23.910556653008733</v>
+      </c>
+      <c r="O46" s="5">
         <f t="shared" si="13"/>
-        <v>1.3024080245320562</v>
-      </c>
-      <c r="F46" s="5">
+        <v>24.423790540516421</v>
+      </c>
+      <c r="P46" s="5">
         <f t="shared" si="13"/>
-        <v>11.004024188592686</v>
-      </c>
-      <c r="G46" s="5">
+        <v>25.305923880815573</v>
+      </c>
+      <c r="Q46" s="5">
         <f t="shared" si="13"/>
-        <v>14.643750000000001</v>
-      </c>
-      <c r="H46" s="5">
+        <v>26.047638877587517</v>
+      </c>
+      <c r="R46" s="5">
         <f t="shared" si="13"/>
-        <v>17.947900362324077</v>
-      </c>
-      <c r="I46" s="5">
+        <v>26.688088289086458</v>
+      </c>
+      <c r="S46" s="5">
         <f t="shared" si="13"/>
-        <v>19.718825250766624</v>
-      </c>
-      <c r="J46" s="5">
+        <v>27.755544051923554</v>
+      </c>
+      <c r="T46" s="5">
         <f t="shared" si="13"/>
-        <v>20.944165554576678</v>
-      </c>
-      <c r="K46" s="5">
+        <v>28.820822196824437</v>
+      </c>
+      <c r="U46" s="5">
         <f t="shared" si="13"/>
-        <v>21.892052750386469</v>
-      </c>
-      <c r="L46" s="5">
-        <f t="shared" si="13"/>
-        <v>22.670184377014799</v>
-      </c>
-      <c r="M46" s="5">
-        <f t="shared" si="13"/>
-        <v>23.332617187499999</v>
-      </c>
-      <c r="N46" s="5">
-        <f t="shared" si="13"/>
-        <v>23.910556653008733</v>
-      </c>
-      <c r="O46" s="5">
-        <f t="shared" si="14"/>
-        <v>24.423790540516421</v>
-      </c>
-      <c r="P46" s="5">
-        <f t="shared" si="14"/>
-        <v>25.305923880815573</v>
-      </c>
-      <c r="Q46" s="5">
-        <f t="shared" si="14"/>
-        <v>26.047638877587517</v>
-      </c>
-      <c r="R46" s="5">
-        <f t="shared" si="14"/>
-        <v>26.688088289086458</v>
-      </c>
-      <c r="S46" s="5">
-        <f t="shared" si="14"/>
-        <v>27.755544051923554</v>
-      </c>
-      <c r="T46" s="5">
-        <f t="shared" si="14"/>
-        <v>28.820822196824437</v>
-      </c>
-      <c r="U46" s="5">
-        <f t="shared" si="14"/>
         <v>31.061157332734169</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C47" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>10p</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="5">
         <f t="shared" si="12"/>
-        <v>10p</v>
-      </c>
-      <c r="D47" s="5">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="E47" s="5">
+        <v>1.1862915010152406</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="12"/>
+        <v>10.324774338142479</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="12"/>
+        <v>13.8</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="12"/>
+        <v>17.004601513777391</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="12"/>
+        <v>18.746446609406725</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="12"/>
+        <v>19.959976942877518</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="12"/>
+        <v>20.902076192559896</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="12"/>
+        <v>21.677002265839093</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="12"/>
+        <v>22.337499999999999</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="12"/>
+        <v>22.914194033570389</v>
+      </c>
+      <c r="O47" s="5">
         <f t="shared" si="13"/>
-        <v>1.1862915010152406</v>
-      </c>
-      <c r="F47" s="5">
+        <v>23.4265856254883</v>
+      </c>
+      <c r="P47" s="5">
         <f t="shared" si="13"/>
-        <v>10.324774338142479</v>
-      </c>
-      <c r="G47" s="5">
+        <v>24.307695791798491</v>
+      </c>
+      <c r="Q47" s="5">
         <f t="shared" si="13"/>
-        <v>13.8</v>
-      </c>
-      <c r="H47" s="5">
+        <v>25.048844121442777</v>
+      </c>
+      <c r="R47" s="5">
         <f t="shared" si="13"/>
-        <v>17.004601513777391</v>
-      </c>
-      <c r="I47" s="5">
+        <v>25.688951456543961</v>
+      </c>
+      <c r="S47" s="5">
         <f t="shared" si="13"/>
-        <v>18.746446609406725</v>
-      </c>
-      <c r="J47" s="5">
+        <v>26.756038157807957</v>
+      </c>
+      <c r="T47" s="5">
         <f t="shared" si="13"/>
-        <v>19.959976942877518</v>
-      </c>
-      <c r="K47" s="5">
+        <v>27.821105039536913</v>
+      </c>
+      <c r="U47" s="5">
         <f t="shared" si="13"/>
-        <v>20.902076192559896</v>
-      </c>
-      <c r="L47" s="5">
-        <f t="shared" si="13"/>
-        <v>21.677002265839093</v>
-      </c>
-      <c r="M47" s="5">
-        <f t="shared" si="13"/>
-        <v>22.337499999999999</v>
-      </c>
-      <c r="N47" s="5">
-        <f t="shared" si="13"/>
-        <v>22.914194033570389</v>
-      </c>
-      <c r="O47" s="5">
-        <f t="shared" si="14"/>
-        <v>23.4265856254883</v>
-      </c>
-      <c r="P47" s="5">
-        <f t="shared" si="14"/>
-        <v>24.307695791798491</v>
-      </c>
-      <c r="Q47" s="5">
-        <f t="shared" si="14"/>
-        <v>25.048844121442777</v>
-      </c>
-      <c r="R47" s="5">
-        <f t="shared" si="14"/>
-        <v>25.688951456543961</v>
-      </c>
-      <c r="S47" s="5">
-        <f t="shared" si="14"/>
-        <v>26.756038157807957</v>
-      </c>
-      <c r="T47" s="5">
-        <f t="shared" si="14"/>
-        <v>27.821105039536913</v>
-      </c>
-      <c r="U47" s="5">
-        <f t="shared" si="14"/>
         <v>30.061244679139541</v>
       </c>
     </row>
@@ -33261,79 +33841,79 @@
         <v>3.3</v>
       </c>
       <c r="C48" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>9p</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="E48" s="5">
         <f t="shared" si="12"/>
-        <v>9p</v>
-      </c>
-      <c r="D48" s="5">
-        <f t="shared" si="15"/>
-        <v>9</v>
-      </c>
-      <c r="E48" s="5">
+        <v>1.0701749774984251</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="12"/>
+        <v>9.6455244876922706</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="12"/>
+        <v>12.956250000000001</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="12"/>
+        <v>16.061302665230706</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="12"/>
+        <v>17.774067968046822</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="12"/>
+        <v>18.975788331178361</v>
+      </c>
+      <c r="K48" s="5">
+        <f t="shared" si="12"/>
+        <v>19.91209963473333</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="12"/>
+        <v>20.683820154663394</v>
+      </c>
+      <c r="M48" s="5">
+        <f t="shared" si="12"/>
+        <v>21.342382812499999</v>
+      </c>
+      <c r="N48" s="5">
+        <f t="shared" si="12"/>
+        <v>21.917831414132053</v>
+      </c>
+      <c r="O48" s="5">
         <f t="shared" si="13"/>
-        <v>1.0701749774984251</v>
-      </c>
-      <c r="F48" s="5">
+        <v>22.429380710460173</v>
+      </c>
+      <c r="P48" s="5">
         <f t="shared" si="13"/>
-        <v>9.6455244876922706</v>
-      </c>
-      <c r="G48" s="5">
+        <v>23.309467702781404</v>
+      </c>
+      <c r="Q48" s="5">
         <f t="shared" si="13"/>
-        <v>12.956250000000001</v>
-      </c>
-      <c r="H48" s="5">
+        <v>24.050049365298033</v>
+      </c>
+      <c r="R48" s="5">
         <f t="shared" si="13"/>
-        <v>16.061302665230706</v>
-      </c>
-      <c r="I48" s="5">
+        <v>24.689814624001464</v>
+      </c>
+      <c r="S48" s="5">
         <f t="shared" si="13"/>
-        <v>17.774067968046822</v>
-      </c>
-      <c r="J48" s="5">
+        <v>25.756532263692357</v>
+      </c>
+      <c r="T48" s="5">
         <f t="shared" si="13"/>
-        <v>18.975788331178361</v>
-      </c>
-      <c r="K48" s="5">
+        <v>26.821387882249386</v>
+      </c>
+      <c r="U48" s="5">
         <f t="shared" si="13"/>
-        <v>19.91209963473333</v>
-      </c>
-      <c r="L48" s="5">
-        <f t="shared" si="13"/>
-        <v>20.683820154663394</v>
-      </c>
-      <c r="M48" s="5">
-        <f t="shared" si="13"/>
-        <v>21.342382812499999</v>
-      </c>
-      <c r="N48" s="5">
-        <f t="shared" si="13"/>
-        <v>21.917831414132053</v>
-      </c>
-      <c r="O48" s="5">
-        <f t="shared" si="14"/>
-        <v>22.429380710460173</v>
-      </c>
-      <c r="P48" s="5">
-        <f t="shared" si="14"/>
-        <v>23.309467702781404</v>
-      </c>
-      <c r="Q48" s="5">
-        <f t="shared" si="14"/>
-        <v>24.050049365298033</v>
-      </c>
-      <c r="R48" s="5">
-        <f t="shared" si="14"/>
-        <v>24.689814624001464</v>
-      </c>
-      <c r="S48" s="5">
-        <f t="shared" si="14"/>
-        <v>25.756532263692357</v>
-      </c>
-      <c r="T48" s="5">
-        <f t="shared" si="14"/>
-        <v>26.821387882249386</v>
-      </c>
-      <c r="U48" s="5">
-        <f t="shared" si="14"/>
         <v>29.06133202554491</v>
       </c>
     </row>
@@ -33345,79 +33925,79 @@
         <v>14</v>
       </c>
       <c r="C49" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>8p</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="E49" s="5">
         <f t="shared" si="12"/>
-        <v>8p</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="E49" s="5">
+        <v>0.95405845398160949</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="12"/>
+        <v>8.9662746372420621</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="12"/>
+        <v>12.112500000000001</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="12"/>
+        <v>15.11800381668402</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="12"/>
+        <v>16.801689326686922</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="12"/>
+        <v>17.991599719479204</v>
+      </c>
+      <c r="K49" s="5">
+        <f t="shared" si="12"/>
+        <v>18.922123076906761</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="12"/>
+        <v>19.690638043487688</v>
+      </c>
+      <c r="M49" s="5">
+        <f t="shared" si="12"/>
+        <v>20.347265624999999</v>
+      </c>
+      <c r="N49" s="5">
+        <f t="shared" si="12"/>
+        <v>20.921468794693709</v>
+      </c>
+      <c r="O49" s="5">
         <f t="shared" si="13"/>
-        <v>0.95405845398160949</v>
-      </c>
-      <c r="F49" s="5">
+        <v>21.432175795432048</v>
+      </c>
+      <c r="P49" s="5">
         <f t="shared" si="13"/>
-        <v>8.9662746372420621</v>
-      </c>
-      <c r="G49" s="5">
+        <v>22.311239613764322</v>
+      </c>
+      <c r="Q49" s="5">
         <f t="shared" si="13"/>
-        <v>12.112500000000001</v>
-      </c>
-      <c r="H49" s="5">
+        <v>23.051254609153293</v>
+      </c>
+      <c r="R49" s="5">
         <f t="shared" si="13"/>
-        <v>15.11800381668402</v>
-      </c>
-      <c r="I49" s="5">
+        <v>23.690677791458967</v>
+      </c>
+      <c r="S49" s="5">
         <f t="shared" si="13"/>
-        <v>16.801689326686922</v>
-      </c>
-      <c r="J49" s="5">
+        <v>24.75702636957676</v>
+      </c>
+      <c r="T49" s="5">
         <f t="shared" si="13"/>
-        <v>17.991599719479204</v>
-      </c>
-      <c r="K49" s="5">
+        <v>25.821670724961862</v>
+      </c>
+      <c r="U49" s="5">
         <f t="shared" si="13"/>
-        <v>18.922123076906761</v>
-      </c>
-      <c r="L49" s="5">
-        <f t="shared" si="13"/>
-        <v>19.690638043487688</v>
-      </c>
-      <c r="M49" s="5">
-        <f t="shared" si="13"/>
-        <v>20.347265624999999</v>
-      </c>
-      <c r="N49" s="5">
-        <f t="shared" si="13"/>
-        <v>20.921468794693709</v>
-      </c>
-      <c r="O49" s="5">
-        <f t="shared" si="14"/>
-        <v>21.432175795432048</v>
-      </c>
-      <c r="P49" s="5">
-        <f t="shared" si="14"/>
-        <v>22.311239613764322</v>
-      </c>
-      <c r="Q49" s="5">
-        <f t="shared" si="14"/>
-        <v>23.051254609153293</v>
-      </c>
-      <c r="R49" s="5">
-        <f t="shared" si="14"/>
-        <v>23.690677791458967</v>
-      </c>
-      <c r="S49" s="5">
-        <f t="shared" si="14"/>
-        <v>24.75702636957676</v>
-      </c>
-      <c r="T49" s="5">
-        <f t="shared" si="14"/>
-        <v>25.821670724961862</v>
-      </c>
-      <c r="U49" s="5">
-        <f t="shared" si="14"/>
         <v>28.061419371950283</v>
       </c>
     </row>
@@ -33430,75 +34010,75 @@
         <v>7p</v>
       </c>
       <c r="D50" s="5">
-        <f>D51+1</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="E50" s="5">
+        <f t="shared" si="12"/>
+        <v>0.83794193046479393</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="12"/>
+        <v>8.2870247867918536</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="12"/>
+        <v>11.268750000000001</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="12"/>
+        <v>14.174704968137334</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="12"/>
+        <v>15.829310685327023</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="12"/>
+        <v>17.007411107780044</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="12"/>
+        <v>17.932146519080192</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" si="12"/>
+        <v>18.697455932311986</v>
+      </c>
+      <c r="M50" s="5">
+        <f t="shared" si="12"/>
+        <v>19.352148437499999</v>
+      </c>
+      <c r="N50" s="5">
+        <f t="shared" si="12"/>
+        <v>19.925106175255369</v>
+      </c>
+      <c r="O50" s="5">
         <f t="shared" si="13"/>
-        <v>0.83794193046479393</v>
-      </c>
-      <c r="F50" s="5">
+        <v>20.434970880403924</v>
+      </c>
+      <c r="P50" s="5">
         <f t="shared" si="13"/>
-        <v>8.2870247867918536</v>
-      </c>
-      <c r="G50" s="5">
+        <v>21.313011524747239</v>
+      </c>
+      <c r="Q50" s="5">
         <f t="shared" si="13"/>
-        <v>11.268750000000001</v>
-      </c>
-      <c r="H50" s="5">
+        <v>22.05245985300855</v>
+      </c>
+      <c r="R50" s="5">
         <f t="shared" si="13"/>
-        <v>14.174704968137334</v>
-      </c>
-      <c r="I50" s="5">
+        <v>22.69154095891647</v>
+      </c>
+      <c r="S50" s="5">
         <f t="shared" si="13"/>
-        <v>15.829310685327023</v>
-      </c>
-      <c r="J50" s="5">
+        <v>23.75752047546116</v>
+      </c>
+      <c r="T50" s="5">
         <f t="shared" si="13"/>
-        <v>17.007411107780044</v>
-      </c>
-      <c r="K50" s="5">
+        <v>24.821953567674338</v>
+      </c>
+      <c r="U50" s="5">
         <f t="shared" si="13"/>
-        <v>17.932146519080192</v>
-      </c>
-      <c r="L50" s="5">
-        <f t="shared" si="13"/>
-        <v>18.697455932311986</v>
-      </c>
-      <c r="M50" s="5">
-        <f t="shared" si="13"/>
-        <v>19.352148437499999</v>
-      </c>
-      <c r="N50" s="5">
-        <f t="shared" si="13"/>
-        <v>19.925106175255369</v>
-      </c>
-      <c r="O50" s="5">
-        <f t="shared" si="14"/>
-        <v>20.434970880403924</v>
-      </c>
-      <c r="P50" s="5">
-        <f t="shared" si="14"/>
-        <v>21.313011524747239</v>
-      </c>
-      <c r="Q50" s="5">
-        <f t="shared" si="14"/>
-        <v>22.05245985300855</v>
-      </c>
-      <c r="R50" s="5">
-        <f t="shared" si="14"/>
-        <v>22.69154095891647</v>
-      </c>
-      <c r="S50" s="5">
-        <f t="shared" si="14"/>
-        <v>23.75752047546116</v>
-      </c>
-      <c r="T50" s="5">
-        <f t="shared" si="14"/>
-        <v>24.821953567674338</v>
-      </c>
-      <c r="U50" s="5">
-        <f t="shared" si="14"/>
         <v>27.061506718355655</v>
       </c>
     </row>
@@ -33511,71 +34091,71 @@
         <v>6</v>
       </c>
       <c r="E51" s="5">
+        <f t="shared" si="12"/>
+        <v>0.72182540694797837</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="12"/>
+        <v>7.607774936341646</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="12"/>
+        <v>10.425000000000001</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="12"/>
+        <v>13.231406119590648</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="12"/>
+        <v>14.856932043967122</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="12"/>
+        <v>16.023222496080887</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" si="12"/>
+        <v>16.942169961253622</v>
+      </c>
+      <c r="L51" s="5">
+        <f t="shared" si="12"/>
+        <v>17.704273821136283</v>
+      </c>
+      <c r="M51" s="5">
+        <f t="shared" si="12"/>
+        <v>18.357031249999999</v>
+      </c>
+      <c r="N51" s="5">
+        <f t="shared" si="12"/>
+        <v>18.928743555817029</v>
+      </c>
+      <c r="O51" s="5">
         <f t="shared" si="13"/>
-        <v>0.72182540694797837</v>
-      </c>
-      <c r="F51" s="5">
+        <v>19.437765965375796</v>
+      </c>
+      <c r="P51" s="5">
         <f t="shared" si="13"/>
-        <v>7.607774936341646</v>
-      </c>
-      <c r="G51" s="5">
+        <v>20.314783435730156</v>
+      </c>
+      <c r="Q51" s="5">
         <f t="shared" si="13"/>
-        <v>10.425000000000001</v>
-      </c>
-      <c r="H51" s="5">
+        <v>21.05366509686381</v>
+      </c>
+      <c r="R51" s="5">
         <f t="shared" si="13"/>
-        <v>13.231406119590648</v>
-      </c>
-      <c r="I51" s="5">
+        <v>21.692404126373972</v>
+      </c>
+      <c r="S51" s="5">
         <f t="shared" si="13"/>
-        <v>14.856932043967122</v>
-      </c>
-      <c r="J51" s="5">
+        <v>22.758014581345563</v>
+      </c>
+      <c r="T51" s="5">
         <f t="shared" si="13"/>
-        <v>16.023222496080887</v>
-      </c>
-      <c r="K51" s="5">
+        <v>23.822236410386811</v>
+      </c>
+      <c r="U51" s="5">
         <f t="shared" si="13"/>
-        <v>16.942169961253622</v>
-      </c>
-      <c r="L51" s="5">
-        <f t="shared" si="13"/>
-        <v>17.704273821136283</v>
-      </c>
-      <c r="M51" s="5">
-        <f t="shared" si="13"/>
-        <v>18.357031249999999</v>
-      </c>
-      <c r="N51" s="5">
-        <f t="shared" si="13"/>
-        <v>18.928743555817029</v>
-      </c>
-      <c r="O51" s="5">
-        <f t="shared" si="14"/>
-        <v>19.437765965375796</v>
-      </c>
-      <c r="P51" s="5">
-        <f t="shared" si="14"/>
-        <v>20.314783435730156</v>
-      </c>
-      <c r="Q51" s="5">
-        <f t="shared" si="14"/>
-        <v>21.05366509686381</v>
-      </c>
-      <c r="R51" s="5">
-        <f t="shared" si="14"/>
-        <v>21.692404126373972</v>
-      </c>
-      <c r="S51" s="5">
-        <f t="shared" si="14"/>
-        <v>22.758014581345563</v>
-      </c>
-      <c r="T51" s="5">
-        <f t="shared" si="14"/>
-        <v>23.822236410386811</v>
-      </c>
-      <c r="U51" s="5">
-        <f t="shared" si="14"/>
         <v>26.061594064761024</v>
       </c>
     </row>
@@ -34587,7 +35167,7 @@
         <v>28</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" ref="E43:T50" si="6">$B$54*($B$48*LOG(E$19,2)+$A$48-($B$50*$D43+$B$49)*POWER(E$19,-$A$49)+$D43)</f>
+        <f t="shared" ref="E43:T43" si="6">$B$54*($B$48*LOG(E$19,2)+$A$48-($B$50*$D43+$B$49)*POWER(E$19,-$A$49)+$D43)</f>
         <v>5.5370972820972915</v>
       </c>
       <c r="F43" s="2">
@@ -34664,7 +35244,7 @@
         <v>24</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E44:E51" si="8">$B$54*($B$48*LOG(E$19,2)+$A$48-($B$50*$D44+$B$49)*POWER(E$19,-$A$49)+$D44)</f>
         <v>4.7521495831236127</v>
       </c>
       <c r="F44" s="2">
@@ -34738,11 +35318,11 @@
         <v>12p</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" ref="D45:D49" si="8">D46+1</f>
+        <f t="shared" ref="D45:D50" si="9">D46+1</f>
         <v>12</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3973064862025932</v>
       </c>
       <c r="F45" s="2">
@@ -34816,11 +35396,11 @@
         <v>11p</v>
       </c>
       <c r="D46" s="2">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="E46" s="2">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="6"/>
         <v>2.2010695614591747</v>
       </c>
       <c r="F46" s="2">
@@ -34894,11 +35474,11 @@
         <v>10p</v>
       </c>
       <c r="D47" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="6"/>
         <v>2.0048326367157565</v>
       </c>
       <c r="F47" s="2">
@@ -34978,11 +35558,11 @@
         <v>9p</v>
       </c>
       <c r="D48" s="2">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="E48" s="2">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="6"/>
         <v>1.8085957119723384</v>
       </c>
       <c r="F48" s="2">
@@ -35062,11 +35642,11 @@
         <v>8p</v>
       </c>
       <c r="D49" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="E49" s="2">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="6"/>
         <v>1.61235878722892</v>
       </c>
       <c r="F49" s="2">
@@ -35143,11 +35723,11 @@
         <v>7p</v>
       </c>
       <c r="D50" s="2">
-        <f>D51+1</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4161218624855016</v>
       </c>
       <c r="F50" s="2">
@@ -35224,71 +35804,71 @@
         <v>6</v>
       </c>
       <c r="E51" s="2">
-        <f>$B$54*($B$48*LOG(E$19,2)+$A$48-($B$50*$D51+$B$49)*POWER(E$19,-$A$49)+$D51)</f>
+        <f t="shared" si="8"/>
         <v>1.2198849377420835</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" ref="F51:U51" si="9">$B$54*($B$48*LOG(F$19,2)+$A$48-($B$50*$D51+$B$49)*POWER(F$19,-$A$49)+$D51)</f>
+        <f t="shared" ref="F51:U51" si="10">$B$54*($B$48*LOG(F$19,2)+$A$48-($B$50*$D51+$B$49)*POWER(F$19,-$A$49)+$D51)</f>
         <v>12.857139642417382</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17.61825</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22.361076342108195</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25.108215154304435</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.079246018376697</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28.632267234518622</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.920222757720317</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.023382812499996</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.989576609330779</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.849824481485093</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34.331984006383962</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35.580694013699841</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36.660162973572014</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38.461044642474</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40.259579533553712</v>
       </c>
       <c r="U51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.044093969446131</v>
       </c>
     </row>
@@ -36415,7 +36995,7 @@
         <v>12p</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" ref="D45:D49" si="8">D46+1</f>
+        <f t="shared" ref="D45:D50" si="8">D46+1</f>
         <v>12</v>
       </c>
       <c r="E45" s="2">
@@ -36820,7 +37400,7 @@
         <v>7p</v>
       </c>
       <c r="D50" s="2">
-        <f>D51+1</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="E50" s="2">
@@ -37017,7 +37597,7 @@
         <v>4</v>
       </c>
       <c r="J42">
-        <f>H42/G42</f>
+        <f t="shared" ref="J42:J61" si="0">H42/G42</f>
         <v>1</v>
       </c>
       <c r="K42">
@@ -37056,7 +37636,7 @@
         <v>5</v>
       </c>
       <c r="J43">
-        <f>H43/G43</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="K43">
@@ -37095,7 +37675,7 @@
         <v>6</v>
       </c>
       <c r="J44">
-        <f>H44/G44</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="K44">
@@ -37134,7 +37714,7 @@
         <v>7</v>
       </c>
       <c r="J45">
-        <f>H45/G45</f>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="K45">
@@ -37173,7 +37753,7 @@
         <v>7</v>
       </c>
       <c r="J46">
-        <f>H46/G46</f>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="K46">
@@ -37212,7 +37792,7 @@
         <v>8</v>
       </c>
       <c r="J47">
-        <f>H47/G47</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K47">
@@ -37251,7 +37831,7 @@
         <v>9</v>
       </c>
       <c r="J48">
-        <f>H48/G48</f>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="K48">
@@ -37290,7 +37870,7 @@
         <v>10</v>
       </c>
       <c r="J49">
-        <f>H49/G49</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="K49">
@@ -37329,7 +37909,7 @@
         <v>11</v>
       </c>
       <c r="J50">
-        <f>H50/G50</f>
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
       <c r="K50">
@@ -37368,7 +37948,7 @@
         <v>12</v>
       </c>
       <c r="J51">
-        <f>H51/G51</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K51">
@@ -37407,7 +37987,7 @@
         <v>12</v>
       </c>
       <c r="J52">
-        <f>H52/G52</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K52">
@@ -37446,7 +38026,7 @@
         <v>13</v>
       </c>
       <c r="J53">
-        <f>H53/G53</f>
+        <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
       <c r="K53">
@@ -37485,7 +38065,7 @@
         <v>14</v>
       </c>
       <c r="J54">
-        <f>H54/G54</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="K54">
@@ -37524,7 +38104,7 @@
         <v>15</v>
       </c>
       <c r="J55">
-        <f>H55/G55</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
       <c r="K55">
@@ -37554,7 +38134,7 @@
         <v>16</v>
       </c>
       <c r="J56">
-        <f>H56/G56</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K56">
@@ -37569,7 +38149,7 @@
         <v>17</v>
       </c>
       <c r="J57">
-        <f>H57/G57</f>
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
       <c r="K57">
@@ -37584,7 +38164,7 @@
         <v>18</v>
       </c>
       <c r="J58">
-        <f>H58/G58</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="K58">
@@ -37599,7 +38179,7 @@
         <v>19</v>
       </c>
       <c r="J59">
-        <f>H59/G59</f>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
       <c r="K59">
@@ -37614,7 +38194,7 @@
         <v>20</v>
       </c>
       <c r="J60">
-        <f>H60/G60</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K60">
@@ -37629,7 +38209,7 @@
         <v>21</v>
       </c>
       <c r="J61">
-        <f>H61/G61</f>
+        <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
       <c r="K61">
